--- a/Led.xlsx
+++ b/Led.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\KiCad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC8198E-382C-42CF-9BC0-67C1F4977D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8774A30-2A64-49D1-9967-8954F6782FD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="960" windowWidth="16200" windowHeight="9480" xr2:uid="{0D892E10-8AB5-4AD5-8508-AB25D6E8104D}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{0D892E10-8AB5-4AD5-8508-AB25D6E8104D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>V</t>
   </si>
@@ -45,6 +37,9 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -399,7 +394,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +417,9 @@
       <c r="C2">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="E2">
         <v>2.2999999999999998</v>
       </c>
@@ -437,7 +435,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5100</v>
+        <v>7500</v>
+      </c>
+      <c r="D3">
+        <v>2700</v>
       </c>
       <c r="E3">
         <f>(E4-E2)/E5</f>
@@ -453,6 +454,9 @@
       </c>
       <c r="C4">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -468,7 +472,11 @@
       </c>
       <c r="C5">
         <f>(C4-C2)/C3</f>
-        <v>5.2941176470588241E-4</v>
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="D5" t="e">
+        <f>(D4-D2)/D3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E5">
         <v>1E-3</v>
